--- a/data2/myexcel.xlsx
+++ b/data2/myexcel.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rWork\rProjects\dataanalytics\data2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rWork\rProjects\dataanalytics\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1181BE7-23A3-4446-95E3-E80870D3AA63}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B786934-EC4F-434F-8F9F-7B417E7D247E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{BC57A3EF-5B0B-4292-8351-C7A224E02AD0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" activeTab="2" xr2:uid="{BC57A3EF-5B0B-4292-8351-C7A224E02AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="batsmen" sheetId="1" r:id="rId1"/>
     <sheet name="bowlers" sheetId="2" r:id="rId2"/>
+    <sheet name="student" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>POS</t>
   </si>
@@ -146,6 +147,60 @@
   </si>
   <si>
     <t>Ishant Sharma</t>
+  </si>
+  <si>
+    <t>rollno</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>student1</t>
+  </si>
+  <si>
+    <t>student2</t>
+  </si>
+  <si>
+    <t>student3</t>
+  </si>
+  <si>
+    <t>student4</t>
+  </si>
+  <si>
+    <t>student5</t>
+  </si>
+  <si>
+    <t>student6</t>
+  </si>
+  <si>
+    <t>student7</t>
+  </si>
+  <si>
+    <t>student8</t>
+  </si>
+  <si>
+    <t>student9</t>
+  </si>
+  <si>
+    <t>student10</t>
+  </si>
+  <si>
+    <t>student11</t>
+  </si>
+  <si>
+    <t>student12</t>
+  </si>
+  <si>
+    <t>student13</t>
+  </si>
+  <si>
+    <t>student14</t>
+  </si>
+  <si>
+    <t>student15</t>
   </si>
 </sst>
 </file>
@@ -544,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26C82BF-7D2E-4ACB-9A8E-C3B2C95CA0C9}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18:I21"/>
     </sheetView>
   </sheetViews>
@@ -1147,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D39029-C648-414F-9A36-1A6666BFFA62}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1455,4 +1510,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF68F89C-D246-4457-B0EB-26E9F21C8FEF}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>